--- a/optimization.xlsx
+++ b/optimization.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>At commit</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>time (ms)</t>
+  </si>
+  <si>
+    <t>260e64ae221e4258c568a49d72e87bfa24a97b9d</t>
   </si>
 </sst>
 </file>
@@ -81,10 +84,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,49 +392,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:F7"/>
+  <dimension ref="C5:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="23.140625" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="2">
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
         <v>9.5</v>
       </c>
-      <c r="E7" s="2">
-        <v>9</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>4.5</v>
+      </c>
+      <c r="F8">
         <v>10</v>
       </c>
     </row>

--- a/optimization.xlsx
+++ b/optimization.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>At commit</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>260e64ae221e4258c568a49d72e87bfa24a97b9d</t>
+  </si>
+  <si>
+    <t>dc07c294a475a8922f924218a3e30048189fcac3</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
   <dimension ref="C5:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,13 +445,16 @@
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D8">
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>4.5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>10</v>
       </c>
     </row>
